--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-JP-Device.xlsx
@@ -373,7 +373,7 @@
     <t>Device.meta.versionId</t>
   </si>
   <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+    <t xml:space="preserve">バージョン固有の識別子 </t>
   </si>
   <si>
     <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
@@ -415,7 +415,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
@@ -438,7 +438,7 @@
     <t>このリソースが適合を主張するプロファイル</t>
   </si>
   <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
   </si>
   <si>
     <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
@@ -681,7 +681,7 @@
     <t>デバイスラベルまたはパッケージに割り当てられた一意のデバイス識別子（UDI）。デバイスには、販売されている管轄権のためのudicarrierのみが含まれているか、販売されていた可能性のある複数の管轄区域のために、複数のudicarriersが含まれる場合があることに注意してください。 / Unique device identifier (UDI) assigned to device label or package.  Note that the Device may include multiple udiCarriers as it either may include just the udiCarrier for the jurisdiction it is sold, or for multiple jurisdictions it could have been sold.</t>
   </si>
   <si>
-    <t>UDIは、デバイスの一意のインスタンスを識別するか、デバイスのタイプのみを識別する場合があります。UDI部品のデバイスへの完全なマッピングについては、[udiマッピング]（device-mappings.html＃udi）を参照してください。 / UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+    <t>UDIは、デバイスの一意のインスタンスを識別するか、デバイスのタイプのみを識別する場合があります。UDI部品のデバイスへの完全なマッピングについては、[udiマッピング]（device-mappings.html＃udi）を参照してください。 / UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](http://hl7.org/fhir/R4/device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
   </si>
   <si>
     <t>.id and .code</t>
